--- a/recidivism_reject_rules.xlsx
+++ b/recidivism_reject_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RULE7</t>
+          <t>RULE24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'offense': 'Burglary'}</t>
+          <t>{'age': '40-49', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0025</v>
+        <v>0.00375</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.64</v>
+        <v>0.5173577627772421</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002456956554516624</v>
+        <v>0.0008164606014664246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RULE66</t>
+          <t>RULE26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'offense': 'Burglary', 'case_type': 'Felony'}</t>
+          <t>{'age': '40-49', 'offense': 'Battery'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0025</v>
+        <v>0.001875</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.64</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002456956554516624</v>
+        <v>0.002443084827160499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RULE84</t>
+          <t>RULE62</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Battery'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0040625</v>
+        <v>0.0046875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4766483516483517</v>
+        <v>0.6651917404129793</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002345952010426733</v>
+        <v>1.117212482933852e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RULE86</t>
+          <t>RULE64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Burglary'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -599,22 +599,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0021875</v>
+        <v>0.0025</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G5" t="n">
-        <v>0.65</v>
+        <v>0.5199568500539373</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004737684017899723</v>
+        <v>0.006587326971000857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RULE94</t>
+          <t>RULE104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'age': '18-29'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.004375</v>
+        <v>0.003125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5919370698131761</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001056707890266531</v>
+        <v>0.0001284981450482208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RULE96</t>
+          <t>RULE154</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'age': '40-49', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0028125</v>
+        <v>0.001875</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6116504854368932</v>
+        <v>0.7377398720682302</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008317752770402328</v>
+        <v>0.000487006956086668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RULE145</t>
+          <t>RULE155</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'age': '18-29', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.003125</v>
+        <v>0.0034375</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.7237048665620094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005762561834534771</v>
+        <v>1.889015982259225e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RULE255</t>
+          <t>RULE160</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
+          <t>{'age': '40-49', 'case_type': 'Misdemeanor', 'offense': 'Battery'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0015625</v>
+        <v>0.001875</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006171443552121966</v>
+        <v>0.00258961500458192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RULE263</t>
+          <t>RULE178</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.004375</v>
+        <v>0.0046875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>5.696097579143655e-05</v>
+        <v>9.095571714171822e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RULE266</t>
+          <t>RULE181</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0028125</v>
+        <v>0.0025</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5222222222222221</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006551722429923785</v>
+        <v>0.007139584105401106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RULE279</t>
+          <t>RULE245</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Burglary', 'case_type': 'Felony'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0021875</v>
+        <v>0.003125</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.65</v>
+        <v>0.7813852813852814</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004737684017899723</v>
+        <v>0.0002860016805970946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RULE302</t>
+          <t>RULE247</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Battery', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0040625</v>
+        <v>0.0021875</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5421686746987953</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007212535066465003</v>
+        <v>0.005834510998934575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RULE330</t>
+          <t>RULE251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': '1-5', 'offense': 'Battery'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'offense': 'Operating While Intoxicated', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -905,124 +905,124 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0021875</v>
+        <v>0.0015625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.675</v>
+        <v>0.607981220657277</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001999051690982686</v>
+        <v>0.007710729560076324</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULE343</t>
+          <t>RULE269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'race': 'Other'}</t>
+          <t>{'race': 'Caucasian'}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'age': '40-49'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'recidivism': 'yes'}</t>
+          <t>{'recidivism': 'no'}</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0028125</v>
+        <v>0.09</v>
       </c>
       <c r="F15" t="n">
-        <v>0.75</v>
+        <v>0.8067226890756303</v>
       </c>
       <c r="G15" t="n">
-        <v>0.698051948051948</v>
+        <v>0.3033213285314126</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00100503508272081</v>
+        <v>2.296261498657368e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RULE344</t>
+          <t>RULE272</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'race': 'Other'}</t>
+          <t>{'race': 'Caucasian'}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'recidivism': 'yes'}</t>
+          <t>{'recidivism': 'no'}</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.001875</v>
+        <v>0.026875</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6147169811320754</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004593123212126663</v>
+        <v>1.541286626539064e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RULE347</t>
+          <t>RULE274</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'race': 'Other'}</t>
+          <t>{'race': 'Caucasian'}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'recidivism': 'yes'}</t>
+          <t>{'recidivism': 'no'}</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.001875</v>
+        <v>0.0846875</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.8575949367088608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.3496584287723529</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0004661948891317057</v>
+        <v>2.984280763588304e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RULE371</t>
+          <t>RULE275</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4796875</v>
+        <v>0.2203125</v>
       </c>
       <c r="F18" t="n">
-        <v>0.708679593721145</v>
+        <v>0.7298136645962733</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1003623790209516</v>
+        <v>0.08889508422049042</v>
       </c>
       <c r="H18" t="n">
-        <v>5.879438343576504e-06</v>
+        <v>0.00454227592048703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RULE376</t>
+          <t>RULE277</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18'}</t>
+          <t>{'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0240625</v>
+        <v>0.361875</v>
       </c>
       <c r="F19" t="n">
-        <v>0.77</v>
+        <v>0.7740641711229946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6756603773584906</v>
+        <v>0.1406832866722101</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003328282900196244</v>
+        <v>1.415591152038953e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RULE377</t>
+          <t>RULE278</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.155</v>
+        <v>0.32375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8266666666666667</v>
+        <v>0.7896341463414634</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1438187702265372</v>
+        <v>0.1289519201296142</v>
       </c>
       <c r="H20" t="n">
-        <v>2.566409789934886e-05</v>
+        <v>8.866049876347139e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RULE378</t>
+          <t>RULE279</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'offense': 'Battery'}</t>
+          <t>{'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,22 +1143,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0359375</v>
+        <v>0.291875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8937799043062201</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2945804195804196</v>
+        <v>0.1809284986837302</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001422555759137086</v>
+        <v>5.071919157587408e-15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RULE379</t>
+          <t>RULE293</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated'}</t>
+          <t>{'prior_misdemeanor': 'None', 'age': '30-39'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.08687499999999999</v>
+        <v>0.0575</v>
       </c>
       <c r="F22" t="n">
-        <v>0.879746835443038</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2924452481414507</v>
+        <v>0.1698196605374823</v>
       </c>
       <c r="H22" t="n">
-        <v>8.167874727388284e-06</v>
+        <v>0.0003181879341630509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RULE381</t>
+          <t>RULE294</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer'}</t>
+          <t>{'age': '40-49', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0328125</v>
+        <v>0.029375</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7720588235294118</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2933354192740926</v>
+        <v>0.5837621497998857</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0005469090665900795</v>
+        <v>5.268039314574117e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RULE382</t>
+          <t>RULE299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None'}</t>
+          <t>{'age': '40-49', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1245,22 +1245,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3846875</v>
+        <v>0.0228125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8228609625668449</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1295656701274726</v>
+        <v>0.7864864864864864</v>
       </c>
       <c r="H24" t="n">
-        <v>4.828731450558826e-09</v>
+        <v>0.0003883988497546416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RULE384</t>
+          <t>RULE300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None'}</t>
+          <t>{'age': '40-49', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3465625</v>
+        <v>0.035</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8452743902439024</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09841622148268159</v>
+        <v>0.3061321880219517</v>
       </c>
       <c r="H25" t="n">
-        <v>1.000239340363647e-05</v>
+        <v>8.902913822083559e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RULE386</t>
+          <t>RULE301</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None'}</t>
+          <t>{'age': '40-49', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.304375</v>
+        <v>0.06625</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9320574162679426</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1167963720912357</v>
+        <v>0.2755817213344548</v>
       </c>
       <c r="H26" t="n">
-        <v>1.257045797427738e-10</v>
+        <v>1.44746150389659e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RULE387</t>
+          <t>RULE302</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'age': '18-29', 'case_type': 'Felony'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.06937500000000001</v>
+        <v>0.063125</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7762237762237763</v>
+        <v>0.9395348837209302</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1667563206024745</v>
+        <v>0.3978682170542636</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001959956814615264</v>
+        <v>5.625107079380322e-10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RULE388</t>
+          <t>RULE303</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'age': '18-29', 'offense': 'Battery'}</t>
+          <t>{'age': '40-49', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0140625</v>
+        <v>0.0509375</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9588235294117647</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4824561403508772</v>
+        <v>0.2808574277168495</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002681583400096834</v>
+        <v>5.242661236535845e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RULE392</t>
+          <t>RULE304</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'age': '18-29'}</t>
+          <t>{'age': '50-59', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1415,22 +1415,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.018125</v>
+        <v>0.0121875</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3691919191919192</v>
+        <v>0.3678861788617885</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001471697834911816</v>
+        <v>0.008119490427876856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RULE393</t>
+          <t>RULE306</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': '18-29'}</t>
+          <t>{'age': '50-59', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1875</v>
+        <v>0.010625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7731958762886598</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1251958762886598</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001999113840526714</v>
+        <v>0.002087820787280942</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RULE396</t>
+          <t>RULE309</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': '18-29'}</t>
+          <t>{'age': '50-59', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.138125</v>
+        <v>0.020625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8752475247524752</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09494449444944497</v>
+        <v>0.2391534391534391</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001996071493502821</v>
+        <v>0.005272542443742517</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RULE399</t>
+          <t>RULE310</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'age': '30-39'}</t>
+          <t>{'age': '50-59', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,22 +1517,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.0215625</v>
+        <v>0.0190625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9078947368421053</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.3432539682539683</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005458374923538248</v>
+        <v>0.0003387206291971619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RULE410</t>
+          <t>RULE314</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'age': '40-49'}</t>
+          <t>{'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.0228125</v>
+        <v>0.0109375</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9864864864864865</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2864864864864866</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0006739554367329071</v>
+        <v>0.004356633794458054</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RULE429</t>
+          <t>RULE315</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18', 'case_type': 'Felony'}</t>
+          <t>{'case_type': 'Misdemeanor', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01</v>
+        <v>0.0140625</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.558922558922559</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.00429027628753129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RULE432</t>
+          <t>RULE316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.02375</v>
+        <v>0.01625</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7104714226115978</v>
+        <v>0.6024590163934426</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001941290416895763</v>
+        <v>0.001547652746643991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RULE433</t>
+          <t>RULE317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.018125</v>
+        <v>0.025625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7109243697478992</v>
+        <v>0.6370463078848561</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005066889115052908</v>
+        <v>1.585807113428231e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RULE434</t>
+          <t>RULE319</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'prior_felony': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.0228125</v>
+        <v>0.0196875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9358974358974359</v>
+        <v>0.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8146853146853147</v>
+        <v>0.7823529411764706</v>
       </c>
       <c r="H37" t="n">
-        <v>0.000578052387980236</v>
+        <v>0.001528168898092623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RULE436</t>
+          <t>RULE320</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.0821875</v>
+        <v>0.0240625</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8945578231292517</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3331543143573219</v>
+        <v>0.7144522144522145</v>
       </c>
       <c r="H38" t="n">
-        <v>1.176971769003955e-06</v>
+        <v>1.203521596842428e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RULE438</t>
+          <t>RULE321</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.079375</v>
+        <v>0.07968749999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8273615635179153</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1388369733539809</v>
+        <v>0.3761188686000716</v>
       </c>
       <c r="H39" t="n">
-        <v>0.006970591881535006</v>
+        <v>1.751747484360578e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RULE440</t>
+          <t>RULE322</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.095</v>
+        <v>0.075625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8735632183908046</v>
+        <v>0.7882736156351792</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1735632183908047</v>
+        <v>0.1981096812089497</v>
       </c>
       <c r="H40" t="n">
-        <v>4.554827043306177e-05</v>
+        <v>0.0008633517964192252</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RULE442</t>
+          <t>RULE323</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1271875</v>
+        <v>0.1009375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.7708830548926014</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1243152128107881</v>
+        <v>0.2769806158682112</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001976011991979757</v>
+        <v>1.349651769748194e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RULE443</t>
+          <t>RULE324</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Felony'}</t>
+          <t>{'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1265625</v>
+        <v>0.09218750000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9</v>
+        <v>0.8477011494252874</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2021276595744681</v>
+        <v>0.2727011494252874</v>
       </c>
       <c r="H42" t="n">
-        <v>5.79040757125357e-09</v>
+        <v>8.272776750386505e-08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RULE444</t>
+          <t>RULE326</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'case_type': 'Felony'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.075625</v>
+        <v>0.1146875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7756410256410257</v>
+        <v>0.8155555555555556</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2015669515669516</v>
+        <v>0.1432151300236407</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0002844507908578541</v>
+        <v>0.0003746714366177351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RULE446</t>
+          <t>RULE328</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'case_type': 'Felony'}</t>
+          <t>{'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1925,22 +1925,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.078125</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9652509652509652</v>
+        <v>0.9556313993174061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1394933894933894</v>
+        <v>0.1153536215396284</v>
       </c>
       <c r="H44" t="n">
-        <v>9.272654406987126e-06</v>
+        <v>0.0001150412572753006</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RULE447</t>
+          <t>RULE331</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'case_type': 'Felony'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.06375</v>
+        <v>0.1715625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7445255474452555</v>
+        <v>0.7428958051420839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1787360737610449</v>
+        <v>0.1208027818862699</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002863011572898188</v>
+        <v>0.001018085072136954</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RULE449</t>
+          <t>RULE333</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.09125</v>
+        <v>0.1121875</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9965870307167235</v>
+        <v>0.8886138613861386</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1424203640500569</v>
+        <v>0.1566550984995407</v>
       </c>
       <c r="H46" t="n">
-        <v>1.365301329625999e-09</v>
+        <v>1.814240236154229e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RULE450</t>
+          <t>RULE337</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'offense': 'Battery', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_misdemeanor': 'None', 'offense': 'Battery'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.0290625</v>
+        <v>0.0209375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.788135593220339</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2637453493178999</v>
+        <v>0.1875644108553761</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002169972982763731</v>
+        <v>0.009029417385408429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RULE451</t>
+          <t>RULE343</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.03125</v>
+        <v>0.0278125</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7633587786259542</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3088133240804997</v>
+        <v>0.519622641509434</v>
       </c>
       <c r="H48" t="n">
-        <v>0.000587353522685407</v>
+        <v>0.001321111369079612</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RULE453</t>
+          <t>RULE344</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'case_type': 'Misdemeanor'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2095,22 +2095,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1696875</v>
+        <v>0.056875</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8564668769716088</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08635193444287326</v>
+        <v>0.218018018018018</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005226250183828812</v>
+        <v>0.006971896656828407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RULE457</t>
+          <t>RULE345</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Battery'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.03125</v>
+        <v>0.0740625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.9367588932806324</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2547008547008547</v>
+        <v>0.4261205954082921</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0007922110633283648</v>
+        <v>3.317104672037015e-09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RULE458</t>
+          <t>RULE346</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Battery'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.03</v>
+        <v>0.06406249999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2953813104189044</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="H51" t="n">
-        <v>3.481231675627187e-06</v>
+        <v>1.280910482729981e-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RULE459</t>
+          <t>RULE347</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Battery'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.01375</v>
+        <v>0.191875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8387978142076503</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4596774193548387</v>
+        <v>0.1664814300268593</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002730510672064309</v>
+        <v>1.139215043054577e-07</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RULE469</t>
+          <t>RULE348</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_felony': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.0278125</v>
+        <v>0.146875</v>
       </c>
       <c r="F53" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8438061041292639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.559622641509434</v>
+        <v>0.09944520187362482</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00127365717232284</v>
+        <v>0.002681379223600463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RULE471</t>
+          <t>RULE349</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated'}</t>
+          <t>{'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2265,22 +2265,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.0740625</v>
+        <v>0.1403125</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9367588932806324</v>
+        <v>0.9393305439330544</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2559078294508452</v>
+        <v>0.1726638772663877</v>
       </c>
       <c r="H54" t="n">
-        <v>8.04563945571545e-06</v>
+        <v>1.02266609401584e-09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RULE472</t>
+          <t>RULE355</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
+          <t>{'prior_felony': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.066875</v>
+        <v>0.2625</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9953488372093023</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1348837209302326</v>
+        <v>0.1410565338276182</v>
       </c>
       <c r="H55" t="n">
-        <v>3.116516913523273e-06</v>
+        <v>5.171505226713092e-08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RULE473</t>
+          <t>RULE356</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.201875</v>
+        <v>0.248125</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8825136612021858</v>
+        <v>0.9554753309265944</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0915532092247846</v>
+        <v>0.2180748004226156</v>
       </c>
       <c r="H56" t="n">
-        <v>0.000305995982282606</v>
+        <v>4.157409014080218e-23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RULE474</t>
+          <t>RULE358</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Other'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1571875</v>
+        <v>0.2259375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9030520646319569</v>
+        <v>0.9305019305019305</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07222499696278395</v>
+        <v>0.1965838018469598</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005938981583979197</v>
+        <v>1.350578464480426e-15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RULE476</t>
+          <t>RULE394</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'age': '18-29'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2401,22 +2401,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1459375</v>
+        <v>0.116875</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9769874476987448</v>
+        <v>0.9326683291770573</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06032078103207816</v>
+        <v>0.1050821222805056</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0002841841146590262</v>
+        <v>0.0001931027956827431</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RULE478</t>
+          <t>RULE395</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Resisting Officer'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'age': '18-29'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.025</v>
+        <v>0.10875</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.8900255754475703</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3218811602365532</v>
+        <v>0.08895030663036607</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002098833899840804</v>
+        <v>0.008561494417379141</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RULE479</t>
+          <t>RULE414</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Resisting Officer'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_felony': 'None', 'age': '30-39'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2469,22 +2469,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.0234375</v>
+        <v>0.0190625</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H60" t="n">
-        <v>2.571961103534181e-05</v>
+        <v>0.0002838378424565909</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RULE480</t>
+          <t>RULE418</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'offense': 'Resisting Officer'}</t>
+          <t>{'offense': 'Other', 'prior_misdemeanor': 'None', 'age': '30-39'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2503,22 +2503,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.0159375</v>
+        <v>0.024375</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="H61" t="n">
-        <v>0.000124065192047223</v>
+        <v>0.005963745786659334</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RULE483</t>
+          <t>RULE422</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_felony': 'None'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'age': '30-39'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2537,22 +2537,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2846875</v>
+        <v>0.0440625</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9343589743589743</v>
+        <v>0.9463087248322147</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1247204201421068</v>
+        <v>0.199642058165548</v>
       </c>
       <c r="H62" t="n">
-        <v>1.259273375836403e-10</v>
+        <v>0.0001036009256010818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RULE485</t>
+          <t>RULE427</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None'}</t>
+          <t>{'age': '40-49', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2546875</v>
+        <v>0.020625</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9807460890493381</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1239821633198952</v>
+        <v>0.875</v>
       </c>
       <c r="H63" t="n">
-        <v>6.985666201442625e-16</v>
+        <v>0.003002510335419858</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RULE487</t>
+          <t>RULE429</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'prior_misdemeanor': 'None'}</t>
+          <t>{'age': '40-49', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2605,22 +2605,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.0721875</v>
+        <v>0.0171875</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8716981132075472</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.12335374234662</v>
+        <v>0.6357758620689655</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004506930707977895</v>
+        <v>0.0005103655613607673</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RULE490</t>
+          <t>RULE430</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2639,22 +2639,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.23125</v>
+        <v>0.0259375</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1044277360066833</v>
+        <v>0.7257905138339922</v>
       </c>
       <c r="H65" t="n">
-        <v>2.533667355868418e-08</v>
+        <v>0.0001007555233140681</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RULE498</t>
+          <t>RULE432</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic', 'age': '18-29'}</t>
+          <t>{'age': '40-49', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.0396875</v>
+        <v>0.01875</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2201771030993043</v>
+        <v>0.6336065573770492</v>
       </c>
       <c r="H66" t="n">
-        <v>0.005392021068567739</v>
+        <v>2.721915954828574e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RULE500</t>
+          <t>RULE438</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': '18-29', 'case_type': 'Felony'}</t>
+          <t>{'age': '40-49', 'case_type': 'Misdemeanor', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2707,22 +2707,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.061875</v>
+        <v>0.0146875</v>
       </c>
       <c r="F67" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2133333333333334</v>
+        <v>0.2430303030303029</v>
       </c>
       <c r="H67" t="n">
-        <v>2.462045855036662e-05</v>
+        <v>0.008595531653236123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RULE502</t>
+          <t>RULE440</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': '18-29', 'case_type': 'Felony'}</t>
+          <t>{'age': '40-49', 'case_type': 'Misdemeanor', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2741,22 +2741,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.04125</v>
+        <v>0.02625</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05263157894736847</v>
+        <v>0.2744282744282744</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008902143154186744</v>
+        <v>0.001092836345967303</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RULE503</t>
+          <t>RULE441</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'age': '18-29', 'offense': 'Battery', 'case_type': 'Misdemeanor'}</t>
+          <t>{'age': '40-49', 'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01125</v>
+        <v>0.0190625</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.199023199023199</v>
       </c>
       <c r="H69" t="n">
-        <v>0.003696409914431693</v>
+        <v>0.006923607391812837</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RULE504</t>
+          <t>RULE443</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'age': '18-29', 'case_type': 'Misdemeanor'}</t>
+          <t>{'age': '40-49', 'prior_misdemeanor': 'None', 'offense': 'Battery'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.0175</v>
+        <v>0.006875</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001610278743186576</v>
+        <v>0.005454411285587651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RULE513</t>
+          <t>RULE445</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': '18-29', 'offense': 'Battery'}</t>
+          <t>{'age': '40-49', 'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.0121875</v>
+        <v>0.0165625</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8863636363636364</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4863636363636363</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0003752784460080562</v>
+        <v>0.0006452637210603301</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RULE514</t>
+          <t>RULE446</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'age': '18-29', 'offense': 'Battery'}</t>
+          <t>{'age': '40-49', 'offense': 'Operating While Intoxicated', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.013125</v>
+        <v>0.0203125</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.8737373737373737</v>
       </c>
       <c r="H72" t="n">
-        <v>4.256451645420264e-05</v>
+        <v>0.007623753513733234</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RULE525</t>
+          <t>RULE447</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'age': '18-29'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'age': '40-49', 'offense': 'Operating While Intoxicated'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.0246875</v>
+        <v>0.008437500000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2375</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0003841444858196949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RULE530</t>
+          <t>RULE448</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Resisting Officer', 'age': '18-29'}</t>
+          <t>{'age': '40-49', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2945,22 +2945,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.01375</v>
+        <v>0.014375</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3671679197994987</v>
+        <v>0.6930091185410334</v>
       </c>
       <c r="H74" t="n">
-        <v>0.008198035689560184</v>
+        <v>0.002266564167809429</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RULE531</t>
+          <t>RULE449</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Resisting Officer', 'age': '18-29'}</t>
+          <t>{'age': '40-49', 'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.013125</v>
+        <v>0.0296875</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.351474466554783</v>
       </c>
       <c r="H75" t="n">
-        <v>0.004136618522988124</v>
+        <v>1.474196706687505e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RULE536</t>
+          <t>RULE451</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'age': '18-29'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3013,22 +3013,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1215625</v>
+        <v>0.0196875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.970074812967581</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="G76" t="n">
-        <v>0.09815363070157113</v>
+        <v>0.3830238726790451</v>
       </c>
       <c r="H76" t="n">
-        <v>8.250460881189011e-06</v>
+        <v>8.272804017624189e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RULE541</t>
+          <t>RULE452</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic', 'age': '30-39'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'age': '40-49', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.020625</v>
+        <v>0.0165625</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9295774647887324</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3413421706710853</v>
+        <v>0.4313524590163934</v>
       </c>
       <c r="H77" t="n">
-        <v>0.003376926012140976</v>
+        <v>0.001381115526226464</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RULE561</t>
+          <t>RULE454</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'age': '30-39'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'age': '40-49', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3081,22 +3081,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.0190625</v>
+        <v>0.0175</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4418423106947698</v>
       </c>
       <c r="H78" t="n">
-        <v>0.001945430577010132</v>
+        <v>0.001163561301733013</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RULE570</t>
+          <t>RULE457</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': '30-39', 'prior_felony': 'None'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3115,22 +3115,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.0515625</v>
+        <v>0.045625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9763313609467456</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09828258045894067</v>
+        <v>0.374248366013072</v>
       </c>
       <c r="H79" t="n">
-        <v>0.002428440836187577</v>
+        <v>9.375005544704405e-08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RULE577</t>
+          <t>RULE459</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'age': '40-49', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'age': '40-49', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.0203125</v>
+        <v>0.040625</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9848484848484849</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3598484848484849</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0006058525686586484</v>
+        <v>2.3708332977181e-08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RULE596</t>
+          <t>RULE461</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'age': '40-49'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'age': '40-49', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.020625</v>
+        <v>0.0259375</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3709239130434783</v>
       </c>
       <c r="H81" t="n">
-        <v>6.62742613589558e-05</v>
+        <v>0.0004208263262830782</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RULE597</t>
+          <t>RULE462</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'age': '40-49', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.008125</v>
+        <v>0.0365625</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9831932773109243</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.4331932773109243</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1.892910253881036e-08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RULE634</t>
+          <t>RULE463</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18', 'case_type': 'Felony', 'offense': 'Other'}</t>
+          <t>{'age': '50-59', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3251,22 +3251,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.0075</v>
+        <v>0.0103125</v>
       </c>
       <c r="F83" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.002394122324591398</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RULE635</t>
+          <t>RULE466</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
+          <t>{'age': '50-59', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3288,19 +3288,19 @@
         <v>0.0096875</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8611111111111112</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.00307359010496843</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RULE636</t>
+          <t>RULE469</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
+          <t>{'age': '50-59', 'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3319,22 +3319,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.009375</v>
+        <v>0.009062499999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.967741935483871</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.006772461405117463</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RULE640</t>
+          <t>RULE471</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'case_type': 'Misdemeanor'}</t>
+          <t>{'age': '50-59', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.0121875</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
-        <v>0.003729506899094658</v>
+        <v>0.004770513090089509</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RULE641</t>
+          <t>RULE474</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'offense': 'Other'}</t>
+          <t>{'age': '50-59', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3387,22 +3387,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.0159375</v>
+        <v>0.006875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.864406779661017</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7532956685499059</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
-        <v>0.008709347495623316</v>
+        <v>0.00440291615159737</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RULE643</t>
+          <t>RULE476</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'offense': 'Other'}</t>
+          <t>{'age': '50-59', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.0153125</v>
+        <v>0.016875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.98</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.3760504201680672</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001476127976938765</v>
+        <v>0.0008921564999103668</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RULE644</t>
+          <t>RULE478</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'prior_felony': 'None'}</t>
+          <t>{'age': '50-59', 'prior_felony': 'None', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.0178125</v>
+        <v>0.01375</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8636363636363636</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7459893048128342</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
-        <v>0.003107403127030514</v>
+        <v>0.000795970063891069</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RULE645</t>
+          <t>RULE479</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'case_type': 'Felony', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3489,22 +3489,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.0225</v>
+        <v>0.0075</v>
       </c>
       <c r="F90" t="n">
-        <v>0.972972972972973</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="n">
-        <v>0.847972972972973</v>
+        <v>0.7247058823529411</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0002478616695229976</v>
+        <v>0.004419048624389992</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RULE646</t>
+          <t>RULE480</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3523,22 +3523,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.016875</v>
+        <v>0.01</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8513833992094861</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="H91" t="n">
-        <v>0.001212671600232392</v>
+        <v>0.005704865584395912</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RULE650</t>
+          <t>RULE481</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_felony': 'None', 'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3557,22 +3557,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.0271875</v>
+        <v>0.006875</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8787878787878788</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5871212121212122</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0004305980345740008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RULE652</t>
+          <t>RULE482</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'prior_misdemeanor': 'None', 'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3591,22 +3591,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.0703125</v>
+        <v>0.0096875</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9493670886075949</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2902761795166858</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H93" t="n">
-        <v>5.969396469234112e-07</v>
+        <v>0.001199626145653729</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RULE653</t>
+          <t>RULE484</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3625,22 +3625,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.06406249999999999</v>
+        <v>0.0140625</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.5897973445143256</v>
       </c>
       <c r="H94" t="n">
-        <v>8.648054484099013e-08</v>
+        <v>0.002338847756515305</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RULE659</t>
+          <t>RULE486</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.06937500000000001</v>
+        <v>0.0128125</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9823008849557522</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1620761658546286</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H95" t="n">
-        <v>8.375387871401748e-07</v>
+        <v>0.001905718813504177</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RULE662</t>
+          <t>RULE487</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.080625</v>
+        <v>0.01625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1329054343175011</v>
+        <v>0.6220966729441306</v>
       </c>
       <c r="H96" t="n">
-        <v>0.001183664045959774</v>
+        <v>0.0008701617550508061</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RULE664</t>
+          <t>RULE489</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_misdemeanor': 'None', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.101875</v>
+        <v>0.0153125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9560117302052786</v>
+        <v>0.98</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1698845625752208</v>
+        <v>0.6942857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>3.411500104214873e-08</v>
+        <v>0.0001220789507766983</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RULE665</t>
+          <t>RULE490</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3761,22 +3761,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.0584375</v>
+        <v>0.0190625</v>
       </c>
       <c r="F98" t="n">
-        <v>0.827433628318584</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2070632579482137</v>
+        <v>0.8065953654188948</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0006557384032290389</v>
+        <v>0.001051217331461286</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RULE666</t>
+          <t>RULE491</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3795,22 +3795,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.0684375</v>
+        <v>0.023125</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9864864864864865</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.09759759759759767</v>
+        <v>0.75</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0001292691256050334</v>
+        <v>1.471000737697847e-06</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RULE667</t>
+          <t>RULE492</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': '1-5', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3829,22 +3829,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.051875</v>
+        <v>0.0071875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8383838383838383</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
-        <v>0.003422391676253599</v>
+        <v>0.007505698513477901</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RULE669</t>
+          <t>RULE493</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'offense': 'Other', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3863,22 +3863,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.0753125</v>
+        <v>0.016875</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1160714285714286</v>
+        <v>0.8513833992094861</v>
       </c>
       <c r="H101" t="n">
-        <v>2.434336296195729e-07</v>
+        <v>0.001212671600232392</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RULE672</t>
+          <t>RULE497</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_felony': '1-5', 'case_type': 'Felony'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.0609375</v>
+        <v>0.026875</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8783783783783784</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3123406425293218</v>
+        <v>0.5353535353535355</v>
       </c>
       <c r="H102" t="n">
-        <v>3.653036413133026e-07</v>
+        <v>0.0006448043654107558</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RULE673</t>
+          <t>RULE498</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Felony', 'prior_felony': 'None'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3931,22 +3931,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.0653125</v>
+        <v>0.0528125</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9720930232558139</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1485636114911081</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>8.519740874625442e-06</v>
+        <v>0.006191615372680975</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RULE674</t>
+          <t>RULE499</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': '1-5', 'case_type': 'Felony'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3965,22 +3965,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.0478125</v>
+        <v>0.0703125</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8453038674033149</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2840793776073965</v>
+        <v>0.4493670886075949</v>
       </c>
       <c r="H104" t="n">
-        <v>3.348372575755782e-05</v>
+        <v>6.897676808780677e-10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RULE675</t>
+          <t>RULE500</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3999,22 +3999,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.07875</v>
+        <v>0.0615625</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0.9609756097560975</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.3030808729139922</v>
       </c>
       <c r="H105" t="n">
-        <v>5.563482943480928e-10</v>
+        <v>3.764695608689866e-07</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RULE676</t>
+          <t>RULE504</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'prior_misdemeanor': '1-5', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4033,22 +4033,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.0384375</v>
+        <v>0.0709375</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7151162790697675</v>
+        <v>0.8764478764478765</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2850087521880471</v>
+        <v>0.2431145431145432</v>
       </c>
       <c r="H106" t="n">
-        <v>0.001290448316915059</v>
+        <v>2.496265043201461e-05</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RULE677</t>
+          <t>RULE505</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.0371875</v>
+        <v>0.0659375</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9336283185840708</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1272598870056497</v>
+        <v>0.3381227006065427</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0005021083453344385</v>
+        <v>2.313142358249002e-09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RULE679</t>
+          <t>RULE507</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4101,22 +4101,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.05375</v>
+        <v>0.080625</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1585365853658537</v>
+        <v>0.3524176294394523</v>
       </c>
       <c r="H108" t="n">
-        <v>4.4526792782672e-07</v>
+        <v>1.107824392608507e-10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RULE680</t>
+          <t>RULE509</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Battery', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4135,22 +4135,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.0246875</v>
+        <v>0.0925</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8680351906158358</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2161290322580646</v>
+        <v>0.1454918380146797</v>
       </c>
       <c r="H109" t="n">
-        <v>0.009854041828183561</v>
+        <v>0.0003955061671117468</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RULE681</t>
+          <t>RULE510</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Battery', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_felony': '1-5', 'offense': 'Other', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4169,22 +4169,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.0253125</v>
+        <v>0.0521875</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9759036144578314</v>
+        <v>0.7389380530973452</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2802514405447879</v>
+        <v>0.2389380530973452</v>
       </c>
       <c r="H110" t="n">
-        <v>4.65945570990932e-05</v>
+        <v>0.001255625369669742</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RULE693</t>
+          <t>RULE512</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Resisting Officer', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_misdemeanor': 'None', 'offense': 'Other', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.02375</v>
+        <v>0.0715625</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.950207468879668</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3323996265172736</v>
+        <v>0.0841360403082394</v>
       </c>
       <c r="H111" t="n">
-        <v>0.002600516896467577</v>
+        <v>0.008971735114081038</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RULE694</t>
+          <t>RULE514</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Resisting Officer', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_felony': '1-5', 'prior_criminal_traffic': 'None', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4237,22 +4237,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.0225</v>
+        <v>0.0578125</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2708333333333334</v>
+        <v>0.2672955974842768</v>
       </c>
       <c r="H112" t="n">
-        <v>2.348289485359006e-05</v>
+        <v>3.49888141413053e-05</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RULE695</t>
+          <t>RULE516</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'offense': 'Resisting Officer', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4271,22 +4271,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.015</v>
+        <v>0.07843749999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0.996031746031746</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1743263196751569</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0001820783057555537</v>
+        <v>5.848285649946697e-10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RULE699</t>
+          <t>RULE518</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_felony': 'None', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.1478125</v>
+        <v>0.05375</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9441117764471058</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1528496405247757</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="H114" t="n">
-        <v>2.154083075581247e-08</v>
+        <v>1.763760168187041e-07</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RULE700</t>
+          <t>RULE523</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'case_type': 'Misdemeanor'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4339,22 +4339,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.1065625</v>
+        <v>0.089375</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9660056657223796</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07292390471609023</v>
+        <v>0.2200205549845838</v>
       </c>
       <c r="H115" t="n">
-        <v>0.001584479275719033</v>
+        <v>4.115798246068611e-05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RULE708</t>
+          <t>RULE524</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Battery', 'prior_felony': 'None'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_felony': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4373,22 +4373,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.0271875</v>
+        <v>0.08125</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9775280898876404</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2483614232209738</v>
+        <v>0.2335482138060704</v>
       </c>
       <c r="H116" t="n">
-        <v>7.077061669127633e-05</v>
+        <v>5.69389730391891e-06</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RULE709</t>
+          <t>RULE525</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': '1-5', 'offense': 'Battery'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4407,22 +4407,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.01125</v>
+        <v>0.0584375</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9257425742574258</v>
       </c>
       <c r="G117" t="n">
-        <v>0.414187643020595</v>
+        <v>0.3054894097004638</v>
       </c>
       <c r="H117" t="n">
-        <v>0.007382944993570393</v>
+        <v>2.098127021030302e-07</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RULE711</t>
+          <t>RULE529</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': '1-5', 'offense': 'Battery'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_criminal_traffic': 'None', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4441,22 +4441,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.01125</v>
+        <v>0.1359375</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0.8682634730538922</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.1498168711121446</v>
       </c>
       <c r="H118" t="n">
-        <v>7.50131946654589e-05</v>
+        <v>3.476540267675178e-05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RULE724</t>
+          <t>RULE530</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'offense': 'OAR/OAS'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.0140625</v>
+        <v>0.10375</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9405099150141643</v>
       </c>
       <c r="G119" t="n">
-        <v>0.369980250164582</v>
+        <v>0.1920822420581895</v>
       </c>
       <c r="H119" t="n">
-        <v>0.001856814902981018</v>
+        <v>2.863959572957503e-08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RULE727</t>
+          <t>RULE531</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_felony': '1-5', 'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4509,22 +4509,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.021875</v>
+        <v>0.02</v>
       </c>
       <c r="F120" t="n">
-        <v>0.958904109589041</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="G120" t="n">
-        <v>0.583904109589041</v>
+        <v>0.3077605321507761</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0001016540553101815</v>
+        <v>0.005311241610963109</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RULE728</t>
+          <t>RULE536</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'offense': 'Battery'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01</v>
+        <v>0.01875</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.0003816170313039159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RULE729</t>
+          <t>RULE538</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'offense': 'Disorderly Conduct', 'prior_criminal_traffic': 'None', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4577,22 +4577,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.0175</v>
+        <v>0.0228125</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3991228070175438</v>
+        <v>0.1388888888888888</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0004103814508899839</v>
+        <v>0.001955993234804844</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RULE733</t>
+          <t>RULE544</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'offense': 'OAR/OAS', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.016875</v>
+        <v>0.0125</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.5260039499670837</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.003427639548205769</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RULE734</t>
+          <t>RULE547</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4645,22 +4645,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.0571875</v>
+        <v>0.021875</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1297003525264394</v>
+        <v>0.646404109589041</v>
       </c>
       <c r="H124" t="n">
-        <v>3.112887886905971e-05</v>
+        <v>0.0001253952795645188</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RULE737</t>
+          <t>RULE549</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other', 'prior_felony': 'None'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.1403125</v>
+        <v>0.0171875</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1307678442682048</v>
+        <v>0.5482456140350878</v>
       </c>
       <c r="H125" t="n">
-        <v>1.197840895465193e-10</v>
+        <v>0.000491911035537011</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RULE739</t>
+          <t>RULE550</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4713,22 +4713,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.129375</v>
+        <v>0.0521875</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.9277777777777778</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09090909090909094</v>
+        <v>0.3148745519713262</v>
       </c>
       <c r="H126" t="n">
-        <v>1.674433559780091e-09</v>
+        <v>5.718609124923844e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RULE743</t>
+          <t>RULE551</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4747,22 +4747,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.105</v>
+        <v>0.046875</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9739130434782609</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="G127" t="n">
-        <v>0.07147401908801698</v>
+        <v>0.1751735402204981</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0008012471237716976</v>
+        <v>0.003201236729870827</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RULE744</t>
+          <t>RULE554</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': 'None', 'prior_felony': 'None'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4781,22 +4781,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.006875</v>
+        <v>0.056875</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>0.367508813160987</v>
       </c>
       <c r="H128" t="n">
-        <v>0.00440291615159737</v>
+        <v>1.471090508547996e-10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RULE745</t>
+          <t>RULE556</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'Resisting Officer', 'prior_felony': 'None'}</t>
+          <t>{'prior_felony': '1-5', 'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4815,22 +4815,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.0196875</v>
+        <v>0.06125</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1910207029369283</v>
       </c>
       <c r="H129" t="n">
-        <v>2.827572785273977e-05</v>
+        <v>0.004070565189966966</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RULE746</t>
+          <t>RULE557</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'offense': 'Resisting Officer'}</t>
+          <t>{'prior_felony': 'None', 'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4849,22 +4849,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.015</v>
+        <v>0.1296875</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0.9100877192982456</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.152096851718337</v>
       </c>
       <c r="H130" t="n">
-        <v>0.000117572935119671</v>
+        <v>1.721154640236914e-06</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RULE747</t>
+          <t>RULE558</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4883,22 +4883,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.0109375</v>
+        <v>0.12875</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.2325428194993412</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0004860593083779105</v>
+        <v>2.115763930018167e-19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RULE754</t>
+          <t>RULE560</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_felony': '1-5', 'prior_misdemeanor': 'None'}</t>
+          <t>{'prior_felony': '1-5', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4917,22 +4917,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.056875</v>
+        <v>0.03625</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9191919191919192</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1472620946305158</v>
+        <v>0.2484720758693362</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0008904551779623162</v>
+        <v>0.0003030052775331088</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RULE755</t>
+          <t>RULE561</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': '1-5', 'prior_felony': 'None'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4951,22 +4951,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.0859375</v>
+        <v>0.1034375</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8233532934131736</v>
+        <v>0.9594202898550724</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1412340881151604</v>
+        <v>0.1423471191233652</v>
       </c>
       <c r="H133" t="n">
-        <v>0.003194505667531059</v>
+        <v>7.531459327518435e-07</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RULE756</t>
+          <t>RULE563</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'prior_felony': 'None'}</t>
+          <t>{'offense': 'Resisting Officer', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4985,90 +4985,90 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.1975</v>
+        <v>0.0146875</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1072796934865901</v>
+        <v>0.2372311827956989</v>
       </c>
       <c r="H134" t="n">
-        <v>9.608945497767426e-16</v>
+        <v>0.003343889609049174</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RULE760</t>
+          <t>RULE568</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>{'race': 'African American'}</t>
+          <t>{'race': 'Caucasian'}</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18'}</t>
+          <t>{'prior_felony': '1-5', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'recidivism': 'yes'}</t>
+          <t>{'recidivism': 'no'}</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.0109375</v>
+        <v>0.0525</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="G135" t="n">
-        <v>0.635601118359739</v>
+        <v>0.2344497607655502</v>
       </c>
       <c r="H135" t="n">
-        <v>7.915989271400713e-08</v>
+        <v>0.0001068455394449009</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RULE761</t>
+          <t>RULE569</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>{'race': 'African American'}</t>
+          <t>{'race': 'Caucasian'}</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'recidivism': 'yes'}</t>
+          <t>{'recidivism': 'no'}</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.0271875</v>
+        <v>0.1953125</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7372881355932204</v>
+        <v>0.9889240506329114</v>
       </c>
       <c r="G136" t="n">
-        <v>0.403014510769525</v>
+        <v>0.1996520199815704</v>
       </c>
       <c r="H136" t="n">
-        <v>4.514067551590116e-11</v>
+        <v>1.414540484596985e-22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RULE763</t>
+          <t>RULE570</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{'offense': 'OAR/OAS'}</t>
+          <t>{'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.0215625</v>
+        <v>0.009375</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8313253012048193</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2348967297762479</v>
+        <v>0.603914259086673</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0005784181723951622</v>
+        <v>3.941041485881365e-06</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RULE768</t>
+          <t>RULE573</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'age': '18-29'}</t>
+          <t>{'age': '18-29', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5121,22 +5121,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.0196875</v>
+        <v>0.015</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9264705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4552377115229654</v>
+        <v>0.2154713940370669</v>
       </c>
       <c r="H138" t="n">
-        <v>5.460562692798015e-10</v>
+        <v>0.007945128877860211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RULE770</t>
+          <t>RULE587</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{'age': '18-29', 'offense': 'OAR/OAS'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'age': '40-49'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5155,22 +5155,22 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.0159375</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.4190126478988168</v>
       </c>
       <c r="H139" t="n">
-        <v>1.276666788006448e-05</v>
+        <v>0.0005185578721447909</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RULE771</t>
+          <t>RULE595</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{'age': '18-29', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5189,22 +5189,22 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.0228125</v>
+        <v>0.005</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8588235294117647</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G140" t="n">
-        <v>0.183147853736089</v>
+        <v>0.6602870813397128</v>
       </c>
       <c r="H140" t="n">
-        <v>0.002416721677310602</v>
+        <v>0.0016892639847856</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RULE773</t>
+          <t>RULE596</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'age': '18-29'}</t>
+          <t>{'case_type': 'Misdemeanor', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5223,22 +5223,22 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.0409375</v>
+        <v>0.004375</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7359550561797753</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1814835114643282</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0003220289382931446</v>
+        <v>0.002752573676134375</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RULE801</t>
+          <t>RULE597</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18', 'case_type': 'Felony'}</t>
+          <t>{'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.0059375</v>
+        <v>0.0053125</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6615942028985506</v>
       </c>
       <c r="H142" t="n">
-        <v>7.973470846478173e-05</v>
+        <v>0.0001454797286567808</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RULE802</t>
+          <t>RULE599</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5291,22 +5291,22 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.005</v>
+        <v>0.009062499999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.6037206931702345</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0005346550401921323</v>
+        <v>7.757168793675472e-06</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RULE803</t>
+          <t>RULE600</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{'age': 'Younger than 18', 'offense': 'Other'}</t>
+          <t>{'prior_felony': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5325,22 +5325,22 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.00625</v>
+        <v>0.0075</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G144" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7564102564102565</v>
       </c>
       <c r="H144" t="n">
-        <v>2.723765866089014e-06</v>
+        <v>4.473878920050319e-06</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RULE805</t>
+          <t>RULE602</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5359,22 +5359,22 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.010625</v>
+        <v>0.005625</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G145" t="n">
-        <v>0.6692150866462793</v>
+        <v>0.7395301327885598</v>
       </c>
       <c r="H145" t="n">
-        <v>7.433706964434676e-08</v>
+        <v>7.054790047496792e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RULE806</t>
+          <t>RULE620</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'age': 'Younger than 18'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5393,22 +5393,22 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.0034375</v>
+        <v>0.0021875</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5263157894736843</v>
+        <v>0.5565400843881856</v>
       </c>
       <c r="H146" t="n">
-        <v>0.005140537740831192</v>
+        <v>0.0003135610044579206</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RULE807</t>
+          <t>RULE633</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'offense': 'Other', 'age': '18-29', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5427,22 +5427,22 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.0075</v>
+        <v>0.0025</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5305514157973175</v>
       </c>
       <c r="H147" t="n">
-        <v>6.036382158180876e-06</v>
+        <v>0.009454724852377029</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RULE809</t>
+          <t>RULE635</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
+          <t>{'prior_felony': 'None', 'age': '18-29', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5461,22 +5461,22 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.0065625</v>
+        <v>0.008125</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8084780388151175</v>
+        <v>0.4453273244781784</v>
       </c>
       <c r="H148" t="n">
-        <v>6.698507003440638e-07</v>
+        <v>4.057840800708317e-05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RULE810</t>
+          <t>RULE658</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'offense': 'OAR/OAS'}</t>
+          <t>{'offense': 'OAR/OAS', 'prior_felony': 'None', 'age': '18-29'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5495,22 +5495,22 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.0215625</v>
+        <v>0.0071875</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8313253012048193</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1751988189913806</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0.007639545364681271</v>
+        <v>0.001642880637504287</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RULE811</t>
+          <t>RULE675</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'age': '30-39', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5529,22 +5529,22 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.0153125</v>
+        <v>0.003125</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G150" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5257575757575756</v>
       </c>
       <c r="H150" t="n">
-        <v>3.17787963692771e-05</v>
+        <v>0.005387065591818207</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RULE812</t>
+          <t>RULE703</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'case_type': 'Criminal Traffic'}</t>
+          <t>{'age': '40-49', 'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5563,22 +5563,22 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.016875</v>
+        <v>0.0021875</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="G151" t="n">
-        <v>0.2524916943521595</v>
+        <v>0.5415841584158415</v>
       </c>
       <c r="H151" t="n">
-        <v>0.001340337227450842</v>
+        <v>0.003191263360123697</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RULE813</t>
+          <t>RULE705</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'age': '40-49', 'case_type': 'Felony'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5597,22 +5597,22 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.0159375</v>
+        <v>0.0040625</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8125</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2861111111111111</v>
+        <v>0.5146276595744681</v>
       </c>
       <c r="H152" t="n">
-        <v>8.903477143672166e-05</v>
+        <v>0.006935167082962236</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RULE835</t>
+          <t>RULE711</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'offense': 'OAR/OAS'}</t>
+          <t>{'prior_misdemeanor': '1-5', 'age': '40-49', 'offense': 'Other'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5631,22 +5631,22 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.0075</v>
+        <v>0.0053125</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="G153" t="n">
-        <v>0.41544477028348</v>
+        <v>0.5778985507246377</v>
       </c>
       <c r="H153" t="n">
-        <v>0.002291019671099472</v>
+        <v>0.001785915615294364</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RULE839</t>
+          <t>RULE713</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'offense': 'OAR/OAS'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'age': '40-49', 'prior_felony': '1-5'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5665,22 +5665,22 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.0096875</v>
+        <v>0.00625</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G154" t="n">
-        <v>0.3232504905166776</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="H154" t="n">
-        <v>0.004119297891199045</v>
+        <v>0.009838341063918128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RULE842</t>
+          <t>RULE714</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{'offense': 'Operating While Intoxicated', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'age': '40-49', 'prior_misdemeanor': '1-5'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5699,22 +5699,22 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.0021875</v>
+        <v>0.0075</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>0.5191146881287726</v>
       </c>
       <c r="H155" t="n">
-        <v>0.003050286050690957</v>
+        <v>0.0003204462744570293</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RULE848</t>
+          <t>RULE726</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'offense': 'Resisting Officer'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5733,22 +5733,22 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.0046875</v>
       </c>
       <c r="F156" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3675373134328358</v>
+        <v>0.6382113821138211</v>
       </c>
       <c r="H156" t="n">
-        <v>0.002911899851985432</v>
+        <v>0.002798783970747995</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RULE849</t>
+          <t>RULE727</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5'}</t>
+          <t>{'prior_felony': 'None', 'case_type': 'Felony', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5767,22 +5767,22 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.009062499999999999</v>
+        <v>0.003125</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7837837837837838</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4504504504504505</v>
+        <v>0.88</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0005866983269548832</v>
+        <v>0.005663283467536139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RULE852</t>
+          <t>RULE731</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5801,22 +5801,22 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.028125</v>
+        <v>0.004375</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7627118644067796</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1553215641758328</v>
+        <v>0.5519713261648745</v>
       </c>
       <c r="H158" t="n">
-        <v>0.008030395858919164</v>
+        <v>0.002200206690207123</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RULE864</t>
+          <t>RULE732</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'age': '18-29', 'offense': 'OAR/OAS'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_felony': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5835,22 +5835,22 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.0159375</v>
+        <v>0.004375</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0001858331028353938</v>
+        <v>0.0008812795281146707</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RULE865</t>
+          <t>RULE733</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'age': '18-29', 'offense': 'Other'}</t>
+          <t>{'case_type': 'Misdemeanor', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5869,22 +5869,22 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.0025</v>
+        <v>0.0028125</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9</v>
       </c>
       <c r="G160" t="n">
-        <v>0.57973174366617</v>
+        <v>0.8347826086956522</v>
       </c>
       <c r="H160" t="n">
-        <v>0.00496519107526221</v>
+        <v>0.002275820005464437</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RULE866</t>
+          <t>RULE734</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{'case_type': 'Criminal Traffic', 'age': '18-29', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_criminal_traffic': 'None', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5903,22 +5903,22 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.01125</v>
+        <v>0.005</v>
       </c>
       <c r="F161" t="n">
-        <v>0.972972972972973</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G161" t="n">
-        <v>0.2627457002457003</v>
+        <v>0.6779261586802827</v>
       </c>
       <c r="H161" t="n">
-        <v>0.001222162087381034</v>
+        <v>0.0001918810579246825</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RULE867</t>
+          <t>RULE735</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic', 'age': '18-29'}</t>
+          <t>{'prior_felony': 'None', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5937,22 +5937,22 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.008125</v>
+        <v>0.004375</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.6426229508196721</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="H162" t="n">
-        <v>3.384084771560788e-08</v>
+        <v>7.231116083092295e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RULE869</t>
+          <t>RULE736</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'case_type': 'Criminal Traffic', 'age': '18-29'}</t>
+          <t>{'prior_misdemeanor': 'None', 'offense': 'Other', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.008437500000000001</v>
+        <v>0.00375</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5069971537001898</v>
+        <v>0.7285714285714286</v>
       </c>
       <c r="H163" t="n">
-        <v>2.158913214184148e-06</v>
+        <v>0.002525262012656714</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RULE871</t>
+          <t>RULE739</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic', 'age': '18-29'}</t>
+          <t>{'prior_felony': 'None', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6005,22 +6005,22 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.009375</v>
+        <v>0.0075</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G164" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.7744282744282744</v>
       </c>
       <c r="H164" t="n">
-        <v>1.059222257893993e-08</v>
+        <v>8.226025905589186e-06</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RULE878</t>
+          <t>RULE741</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{'offense': 'Resisting Officer', 'age': '18-29', 'case_type': 'Misdemeanor'}</t>
+          <t>{'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6039,22 +6039,22 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.005625</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5024691358024691</v>
+        <v>0.7467532467532468</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0008591395905206075</v>
+        <v>0.0001536503538735387</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RULE886</t>
+          <t>RULE743</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'age': '18-29', 'offense': 'Battery'}</t>
+          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6073,22 +6073,22 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.0071875</v>
+        <v>0.0053125</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>0.8777777777777778</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0001474683001152825</v>
+        <v>0.0003693880341045693</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RULE894</t>
+          <t>RULE747</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': '18-29', 'offense': 'OAR/OAS'}</t>
+          <t>{'offense': 'Operating While Intoxicated', 'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6107,22 +6107,22 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.0065625</v>
+        <v>0.0021875</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="H167" t="n">
-        <v>9.112131212566962e-06</v>
+        <v>0.0003621712150963168</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RULE896</t>
+          <t>RULE750</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{'prior_felony': 'None', 'age': '18-29', 'offense': 'OAR/OAS'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'prior_felony': 'None', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6141,22 +6141,22 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.0071875</v>
+        <v>0.0065625</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.3665158371040724</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0002869383919020988</v>
+        <v>0.002473210213489858</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RULE898</t>
+          <t>RULE751</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': 'None', 'age': '18-29', 'offense': 'OAR/OAS'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'prior_misdemeanor': '1-5', 'case_type': 'Criminal Traffic'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6175,22 +6175,22 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.009062499999999999</v>
+        <v>0.009375</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4574468085106383</v>
+        <v>0.3416095890410958</v>
       </c>
       <c r="H169" t="n">
-        <v>3.710158660227482e-05</v>
+        <v>0.0006750051539217603</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RULE903</t>
+          <t>RULE793</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{'prior_felony': '1-5', 'offense': 'Resisting Officer', 'age': '18-29'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'OAR/OAS', 'prior_misdemeanor': '1-5'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6209,22 +6209,22 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.0071875</v>
+        <v>0.0075</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4744623655913979</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="H170" t="n">
-        <v>0.001977353986992954</v>
+        <v>0.0008145615023270476</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RULE904</t>
+          <t>RULE795</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Resisting Officer', 'age': '18-29'}</t>
+          <t>{'offense': 'OAR/OAS', 'prior_misdemeanor': 'None', 'prior_criminal_traffic': 'None'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6243,22 +6243,22 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.006875</v>
+        <v>0.005</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G171" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.4686520376175549</v>
       </c>
       <c r="H171" t="n">
-        <v>3.934070708988838e-05</v>
+        <v>0.007436938724657691</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RULE907</t>
+          <t>RULE801</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{'prior_misdemeanor': '1-5', 'age': '18-29', 'prior_criminal_traffic': '1-5'}</t>
+          <t>{'prior_criminal_traffic': '1-5', 'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5'}</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6277,866 +6277,16 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.016875</v>
+        <v>0.0028125</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1987993138936535</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0008622315331387294</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>RULE910</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': '1-5', 'prior_felony': '1-5', 'age': '18-29'}</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>0.0290625</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.2060606060606062</v>
-      </c>
-      <c r="H173" t="n">
-        <v>5.485472828744637e-05</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>RULE964</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>{'prior_felony': '6-10', 'age': '40-49', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>0.0021875</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>RULE996</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>{'age': 'Younger than 18', 'case_type': 'Felony', 'offense': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>0.004375</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.8571428571428572</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.002250226568085786</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>RULE997</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>0.005625</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.0001234959194195951</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>RULE999</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>0.003125</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.003162763790369111</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>RULE1001</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'case_type': 'Felony'}</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>0.00375</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.0005760403386062817</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>RULE1003</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.5985663082437276</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.0004250222093851962</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>RULE1004</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'age': 'Younger than 18', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>0.004375</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.001217214513842871</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>RULE1006</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>0.0028125</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.001352446145250239</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>RULE1007</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'offense': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>0.0059375</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.8059701492537313</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3.612093321822984e-06</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>RULE1008</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'age': 'Younger than 18', 'offense': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>0.004375</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.7959183673469388</v>
-      </c>
-      <c r="H183" t="n">
-        <v>7.542510724848959e-05</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>RULE1009</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': 'None', 'age': 'Younger than 18', 'offense': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>0.0046875</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.0001935442184579813</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>RULE1011</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'offense': 'Resisting Officer', 'age': 'Younger than 18'}</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0021875</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>RULE1012</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_felony': '1-5', 'age': 'Younger than 18'}</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>0.003125</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.004849583084270566</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>RULE1013</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'age': 'Younger than 18', 'prior_felony': 'None'}</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.7203742203742204</v>
-      </c>
-      <c r="H187" t="n">
-        <v>7.214971738877359e-06</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>RULE1015</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>0.0065625</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.8474025974025975</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2.33880022922455e-06</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>RULE1018</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'prior_misdemeanor': 'None', 'age': 'Younger than 18'}</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>0.0053125</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.8777777777777778</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.0003693880341045693</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>RULE1020</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>{'prior_criminal_traffic': 'None', 'case_type': 'Criminal Traffic', 'offense': 'OAR/OAS'}</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.3647727272727273</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.008077117977957385</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>RULE1024</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': 'None', 'case_type': 'Criminal Traffic', 'offense': 'OAR/OAS'}</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>0.0096875</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.7045454545454546</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.2968531468531469</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.008606621373124101</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>RULE1030</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>{'prior_felony': 'None', 'case_type': 'Criminal Traffic', 'prior_criminal_traffic': '1-5'}</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>0.0065625</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.3518099547511312</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.003586459758667022</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>RULE1031</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>{'case_type': 'Criminal Traffic', 'prior_misdemeanor': '1-5', 'prior_criminal_traffic': '1-5'}</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.2876712328767124</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.0008036312562913382</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>RULE1039</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>{'prior_misdemeanor': '1-5', 'offense': 'Battery', 'case_type': 'Felony'}</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>0.0028125</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>RULE1067</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>{'prior_felony': '1-5', 'offense': 'Resisting Officer', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>0.008437500000000001</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.36875</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0.002726033449779743</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>RULE1068</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>{'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5', 'case_type': 'Misdemeanor'}</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>0.009062499999999999</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.4385456885456885</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0.00082961688817749</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>RULE1122</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>{'race': 'African American'}</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>{'prior_felony': '1-5', 'offense': 'Resisting Officer', 'prior_misdemeanor': '1-5'}</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>{'recidivism': 'yes'}</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>0.0059375</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.359090909090909</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0.009211444594268514</v>
+        <v>0.003565034630853159</v>
       </c>
     </row>
   </sheetData>
